--- a/Circuito/Tabla-Estados.xlsx
+++ b/Circuito/Tabla-Estados.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,59 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avbar\Desktop\Mecatronica-Proyecto-main\Circuito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B93A2730-87D4-492D-BC53-F6BF0377BEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DAA7DB-B9C0-4143-AAAE-C4D1992BF98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-1260" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
-  <si>
-    <t>Girar_izquierda_atras</t>
-  </si>
-  <si>
-    <t>Ir atrás</t>
-  </si>
-  <si>
-    <t>Girar_derecha_atras</t>
-  </si>
-  <si>
-    <t>Girar_sobre_si_mismo_izq</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Parado</t>
   </si>
   <si>
-    <t>Girar_sobre_si_mismo_derecha</t>
-  </si>
-  <si>
-    <t>Girar_izquierda_delante</t>
-  </si>
-  <si>
     <t>Avanzar</t>
   </si>
   <si>
-    <t>Girar_derecha_delante</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Rueda Izquierda</t>
-  </si>
-  <si>
-    <t>Rueda Derecha</t>
-  </si>
-  <si>
     <t xml:space="preserve">0x5208          //Retroceder / 2   </t>
   </si>
   <si>
@@ -92,12 +59,54 @@
   </si>
   <si>
     <t>0x5DC0          //Avanzar</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>Retroceder</t>
+  </si>
+  <si>
+    <t>Retroceder hacia izquierda</t>
+  </si>
+  <si>
+    <t>Retroceder hacia derecha</t>
+  </si>
+  <si>
+    <t>Rotar izquierda</t>
+  </si>
+  <si>
+    <t>Rotar derecha</t>
+  </si>
+  <si>
+    <t>Avanzar hacia izquierda</t>
+  </si>
+  <si>
+    <t>Avanzar hacia derecha</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Velocidad rueda derecha</t>
+  </si>
+  <si>
+    <t>Velocidad rueda izquierda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -299,25 +308,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="2"/>
-    <cellStyle name="Accent 1" xfId="3"/>
-    <cellStyle name="Accent 2" xfId="4"/>
-    <cellStyle name="Accent 3" xfId="5"/>
-    <cellStyle name="Bad" xfId="6"/>
-    <cellStyle name="Error" xfId="7"/>
-    <cellStyle name="Footnote" xfId="8"/>
-    <cellStyle name="Good" xfId="9"/>
-    <cellStyle name="Heading (user)" xfId="10"/>
-    <cellStyle name="Heading 1" xfId="11"/>
-    <cellStyle name="Heading 2" xfId="12"/>
-    <cellStyle name="Hyperlink" xfId="13"/>
+    <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading (user)" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Result (user)" xfId="15"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Result (user)" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,41 +637,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="1" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="32.75" customWidth="1"/>
     <col min="8" max="8" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -679,14 +691,14 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -703,14 +715,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -727,14 +739,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -753,10 +765,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -773,14 +785,14 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -797,14 +809,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -821,14 +833,14 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -847,10 +859,10 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -867,14 +879,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -891,14 +903,14 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -915,14 +927,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I14" s="4"/>
     </row>
